--- a/data/trans_orig/Q03B_FES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.18303492921334</v>
+        <v>1.186033843684468</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.205391582205366</v>
+        <v>1.196052550986954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.486583456634982</v>
+        <v>1.504042645222303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.506740743380232</v>
+        <v>3.522621445860787</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.211077380993036</v>
+        <v>3.221333987958215</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.388459639034541</v>
+        <v>3.389413483337212</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.518859207846228</v>
+        <v>2.511679635144959</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.395430775144789</v>
+        <v>2.387294762449384</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.630277651451185</v>
+        <v>2.622735000993254</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.443517846371407</v>
+        <v>1.459619429467816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.412422451555925</v>
+        <v>1.411031583977354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.746500034966086</v>
+        <v>1.758241051967316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.800197599418591</v>
+        <v>3.818821627055009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.480566400174937</v>
+        <v>3.47014891351162</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.70312687655093</v>
+        <v>3.703582909602151</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.741127349418631</v>
+        <v>2.744230711928052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.583906230139855</v>
+        <v>2.585721973616432</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.847185260252698</v>
+        <v>2.840448123242476</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.27060492061205</v>
+        <v>1.282123792390509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.438464356816576</v>
+        <v>1.433652621165651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.594725663708096</v>
+        <v>1.598555821265769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.487944983101332</v>
+        <v>3.472522357263861</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.358170967796831</v>
+        <v>3.350764698837215</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.310837141249761</v>
+        <v>3.302193687674388</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.363825657875186</v>
+        <v>2.362170808678513</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.364987727931138</v>
+        <v>2.35768645848312</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.462939093112027</v>
+        <v>2.462211274488339</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.462433199766173</v>
+        <v>1.467517508602352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.589641460332274</v>
+        <v>1.585033030315167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.73329180924736</v>
+        <v>1.74022776861748</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.738289078598132</v>
+        <v>3.726266264637346</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.564945150102962</v>
+        <v>3.56506943055945</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.501916919143026</v>
+        <v>3.494448041046059</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.53971484849671</v>
+        <v>2.540305527100816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.502057433406256</v>
+        <v>2.500775451485084</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.60181259179999</v>
+        <v>2.596714236664369</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.493660030356317</v>
+        <v>1.491802911304764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.593923133031564</v>
+        <v>1.604660467589375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.856846615363804</v>
+        <v>1.855146908821254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.846477610470833</v>
+        <v>2.851564677816869</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.879347664778057</v>
+        <v>2.910092428900972</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.933973644599954</v>
+        <v>2.960862247787832</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.15324148350478</v>
+        <v>2.155092418136221</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.285689736750885</v>
+        <v>2.274967499084099</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.436838004542365</v>
+        <v>2.430480507559921</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.813346309022767</v>
+        <v>1.82811972688711</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.897434488118528</v>
+        <v>1.91874290516528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.118656956012798</v>
+        <v>2.119075327397785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.210318222809488</v>
+        <v>3.230920256214579</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.279032819560038</v>
+        <v>3.278363070310154</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.315500518276417</v>
+        <v>3.320470559980879</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.424809585936734</v>
+        <v>2.413386004151359</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.535530790853731</v>
+        <v>2.542167918686496</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.676642076313386</v>
+        <v>2.675015996177255</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.330327135719688</v>
+        <v>1.326867221628234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.43231344360597</v>
+        <v>1.427981833595563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.649298685770992</v>
+        <v>1.652245594713307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.454378516006998</v>
+        <v>3.46057966943599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.287265716215536</v>
+        <v>3.293828930215832</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.318148975229658</v>
+        <v>3.323693962889683</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.426104290587473</v>
+        <v>2.425791652793555</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.392978095412886</v>
+        <v>2.394219143754285</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.529217404671116</v>
+        <v>2.532453387425926</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.4599589158911</v>
+        <v>1.467558949277577</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.546409415029537</v>
+        <v>1.536906231869595</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.763015919857759</v>
+        <v>1.759790689751364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.624379279829052</v>
+        <v>3.627129492211294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.43734477727683</v>
+        <v>3.439856967214848</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.467063242964736</v>
+        <v>3.472045375925991</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.551039140453277</v>
+        <v>2.550698753374701</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.499146329538103</v>
+        <v>2.497827326982236</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.630322240525656</v>
+        <v>2.632555947493255</v>
       </c>
     </row>
     <row r="16">
